--- a/DATA_goal/Junction_Flooding_343.xlsx
+++ b/DATA_goal/Junction_Flooding_343.xlsx
@@ -450,7 +450,7 @@
     <col width="7" customWidth="1" min="6" max="6"/>
     <col width="7" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="6" customWidth="1" min="9" max="9"/>
+    <col width="7" customWidth="1" min="9" max="9"/>
     <col width="7" customWidth="1" min="10" max="10"/>
     <col width="7" customWidth="1" min="11" max="11"/>
     <col width="7" customWidth="1" min="12" max="12"/>
@@ -465,7 +465,7 @@
     <col width="7" customWidth="1" min="21" max="21"/>
     <col width="7" customWidth="1" min="22" max="22"/>
     <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="6" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
     <col width="7" customWidth="1" min="26" max="26"/>
     <col width="7" customWidth="1" min="27" max="27"/>
@@ -655,103 +655,103 @@
         <v>45024.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>1.59</v>
+        <v>15.85</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>1.05</v>
+        <v>10.49</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.37</v>
+        <v>3.74</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>3.38</v>
+        <v>33.76</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>2.61</v>
+        <v>26.1</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>1.24</v>
+        <v>12.38</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>3.78</v>
+        <v>37.78</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>1.92</v>
+        <v>19.2</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.78</v>
+        <v>7.83</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>1.16</v>
+        <v>11.63</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>1.33</v>
+        <v>13.33</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>1.4</v>
+        <v>13.95</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.4</v>
+        <v>3.98</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>1.24</v>
+        <v>12.41</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>1.72</v>
+        <v>17.16</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>1.09</v>
+        <v>10.86</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.31</v>
+        <v>3.13</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.2</v>
+        <v>2.01</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>18.15</v>
+        <v>181.47</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>3.44</v>
+        <v>34.41</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>1.15</v>
+        <v>11.45</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>2.23</v>
+        <v>22.3</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>1.13</v>
+        <v>11.28</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.32</v>
+        <v>3.17</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>1.93</v>
+        <v>19.35</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>1.01</v>
+        <v>10.12</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.91</v>
+        <v>9.109999999999999</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>1.09</v>
+        <v>10.92</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>1.4</v>
+        <v>14.04</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.33</v>
+        <v>3.31</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>3.39</v>
+        <v>33.91</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.61</v>
+        <v>6.11</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>1.43</v>
+        <v>14.32</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>45024.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>0.24</v>
+        <v>2.4</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0.11</v>
+        <v>1.12</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.13</v>
+        <v>1.31</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>0.51</v>
+        <v>5.09</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>0.32</v>
+        <v>3.16</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>0.18</v>
+        <v>1.81</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>1.21</v>
+        <v>12.12</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>0.29</v>
+        <v>2.91</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.11</v>
+        <v>1.06</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>0.12</v>
+        <v>1.2</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>0.2</v>
+        <v>1.98</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>0.2</v>
+        <v>2.02</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.06</v>
+        <v>0.63</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>0.19</v>
+        <v>1.88</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>0.25</v>
+        <v>2.55</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>0.2</v>
+        <v>2.03</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.14</v>
+        <v>1.36</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.66</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>2.14</v>
+        <v>21.39</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>0.57</v>
+        <v>5.68</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>0.17</v>
+        <v>1.74</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>0.34</v>
+        <v>3.41</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>0.15</v>
+        <v>1.55</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.1</v>
+        <v>0.96</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>5.6</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>0.15</v>
+        <v>1.53</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>0.16</v>
+        <v>1.57</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>0.19</v>
+        <v>1.89</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>0.21</v>
+        <v>2.08</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.12</v>
+        <v>1.25</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>1.19</v>
+        <v>11.86</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.73</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>0.22</v>
+        <v>2.18</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>45024.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>2.11</v>
+        <v>21.14</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>1.54</v>
+        <v>15.43</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.15</v>
+        <v>1.47</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>4.59</v>
+        <v>45.93</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>3.72</v>
+        <v>37.23</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>1.66</v>
+        <v>16.56</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>5.93</v>
+        <v>59.3</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>2.56</v>
+        <v>25.6</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>1.13</v>
+        <v>11.26</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>1.66</v>
+        <v>16.63</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>1.84</v>
+        <v>18.41</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>1.94</v>
+        <v>19.44</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.53</v>
+        <v>5.31</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>1.65</v>
+        <v>16.54</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>2.34</v>
+        <v>23.44</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>1.41</v>
+        <v>14.06</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.11</v>
+        <v>1.05</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.1</v>
+        <v>0.97</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>24.45</v>
+        <v>244.46</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>4.61</v>
+        <v>46.13</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>1.53</v>
+        <v>15.27</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>3.09</v>
+        <v>30.86</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>1.62</v>
+        <v>16.18</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.26</v>
+        <v>2.63</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>2.95</v>
+        <v>29.53</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>1.35</v>
+        <v>13.49</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>1.2</v>
+        <v>12</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>1.41</v>
+        <v>14.14</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>1.93</v>
+        <v>19.34</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.08</v>
+        <v>0.77</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>5.38</v>
+        <v>53.78</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.85</v>
+        <v>8.52</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>1.91</v>
+        <v>19.09</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>45024.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>2.02</v>
+        <v>20.18</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>1.48</v>
+        <v>14.82</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.12</v>
+        <v>1.22</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>4.39</v>
+        <v>43.86</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>3.57</v>
+        <v>35.69</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>1.58</v>
+        <v>15.81</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>6.19</v>
+        <v>61.91</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>2.44</v>
+        <v>24.43</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>1.08</v>
+        <v>10.82</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>1.6</v>
+        <v>15.97</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>1.76</v>
+        <v>17.59</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>1.86</v>
+        <v>18.6</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.51</v>
+        <v>5.07</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>1.58</v>
+        <v>15.79</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>2.24</v>
+        <v>22.44</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>1.34</v>
+        <v>13.36</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.08</v>
+        <v>0.82</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.08</v>
+        <v>0.83</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>23.3</v>
+        <v>233.04</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>4.42</v>
+        <v>44.18</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>1.46</v>
+        <v>14.58</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>2.96</v>
+        <v>29.63</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>1.55</v>
+        <v>15.51</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.24</v>
+        <v>2.41</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>3.01</v>
+        <v>30.09</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>1.29</v>
+        <v>12.87</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>1.14</v>
+        <v>11.43</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>1.35</v>
+        <v>13.45</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>1.85</v>
+        <v>18.49</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.06</v>
+        <v>0.55</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>5.64</v>
+        <v>56.42</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.82</v>
+        <v>8.17</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>1.82</v>
+        <v>18.22</v>
       </c>
     </row>
     <row r="6">

--- a/DATA_goal/Junction_Flooding_343.xlsx
+++ b/DATA_goal/Junction_Flooding_343.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
-    <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
-    <col width="6" customWidth="1" min="18" max="18"/>
-    <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
-    <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
+    <col width="8" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="14" max="14"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="18" max="18"/>
+    <col width="7" customWidth="1" min="19" max="19"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="25" max="25"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
+    <col width="8" customWidth="1" min="27" max="27"/>
     <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
-    <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
-    <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="31" max="31"/>
+    <col width="8" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="33" max="33"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,103 +655,103 @@
         <v>45024.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>15.85</v>
+        <v>15.854</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>10.49</v>
+        <v>10.494</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>3.74</v>
+        <v>3.735</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>33.76</v>
+        <v>33.762</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>26.1</v>
+        <v>26.097</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>12.38</v>
+        <v>12.381</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>37.78</v>
+        <v>37.784</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>19.2</v>
+        <v>19.197</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>7.83</v>
+        <v>7.826</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>11.63</v>
+        <v>11.635</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>13.33</v>
+        <v>13.329</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>13.95</v>
+        <v>13.955</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>3.98</v>
+        <v>3.981</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>12.41</v>
+        <v>12.407</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>17.16</v>
+        <v>17.155</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>10.86</v>
+        <v>10.858</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>3.13</v>
+        <v>3.133</v>
       </c>
       <c r="S2" s="4" t="n">
         <v>2.01</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>181.47</v>
+        <v>181.475</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>34.41</v>
+        <v>34.412</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>11.45</v>
+        <v>11.452</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>22.3</v>
+        <v>22.298</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>11.28</v>
+        <v>11.285</v>
       </c>
       <c r="Y2" s="4" t="n">
         <v>3.17</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>19.35</v>
+        <v>19.349</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>10.12</v>
+        <v>10.115</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>9.109999999999999</v>
+        <v>9.106</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>10.92</v>
+        <v>10.918</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>14.04</v>
+        <v>14.036</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>3.31</v>
+        <v>3.313</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>33.91</v>
+        <v>33.905</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>6.11</v>
+        <v>6.108</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>14.32</v>
+        <v>14.317</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>45024.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>2.4</v>
+        <v>2.402</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>1.12</v>
+        <v>1.119</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.31</v>
+        <v>1.308</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>5.09</v>
+        <v>5.085</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>3.16</v>
+        <v>3.164</v>
       </c>
       <c r="G3" s="4" t="n">
         <v>1.81</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>12.12</v>
+        <v>12.119</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>2.91</v>
+        <v>2.909</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>1.06</v>
+        <v>1.062</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>1.2</v>
+        <v>1.196</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>1.98</v>
+        <v>1.978</v>
       </c>
       <c r="M3" s="4" t="n">
         <v>2.02</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.63</v>
+        <v>0.625</v>
       </c>
       <c r="O3" s="4" t="n">
         <v>1.88</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>2.55</v>
+        <v>2.547</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>2.03</v>
+        <v>2.032</v>
       </c>
       <c r="R3" s="4" t="n">
         <v>1.36</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.66</v>
+        <v>0.656</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>21.39</v>
+        <v>21.387</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>5.68</v>
+        <v>5.678</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>1.74</v>
+        <v>1.735</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>3.41</v>
+        <v>3.405</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>1.55</v>
+        <v>1.548</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.96</v>
+        <v>0.955</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>5.6</v>
+        <v>5.595</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>1.53</v>
+        <v>1.533</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>1.57</v>
+        <v>1.573</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>1.89</v>
+        <v>1.887</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>2.08</v>
+        <v>2.075</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.25</v>
+        <v>1.246</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>11.86</v>
+        <v>11.862</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.73</v>
+        <v>0.731</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>2.18</v>
+        <v>2.176</v>
       </c>
     </row>
     <row r="4">
@@ -863,73 +863,73 @@
         <v>45024.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>21.14</v>
+        <v>21.139</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>15.43</v>
+        <v>15.429</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>1.47</v>
+        <v>1.466</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>45.93</v>
+        <v>45.926</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>37.23</v>
+        <v>37.234</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>16.56</v>
+        <v>16.562</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>59.3</v>
+        <v>59.304</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>25.6</v>
+        <v>25.596</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>11.26</v>
+        <v>11.262</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>16.63</v>
+        <v>16.631</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>18.41</v>
+        <v>18.408</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>19.44</v>
+        <v>19.442</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>5.31</v>
+        <v>5.312</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>16.54</v>
+        <v>16.542</v>
       </c>
       <c r="P4" s="4" t="n">
         <v>23.44</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>14.06</v>
+        <v>14.059</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>1.05</v>
+        <v>1.052</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.97</v>
+        <v>0.968</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>244.46</v>
+        <v>244.456</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>46.13</v>
+        <v>46.125</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>15.27</v>
+        <v>15.269</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>30.86</v>
+        <v>30.857</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>16.18</v>
+        <v>16.177</v>
       </c>
       <c r="Y4" s="4" t="n">
         <v>2.63</v>
@@ -938,25 +938,25 @@
         <v>29.53</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>13.49</v>
+        <v>13.487</v>
       </c>
       <c r="AB4" s="4" t="n">
         <v>12</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>14.14</v>
+        <v>14.136</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>19.34</v>
+        <v>19.343</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.77</v>
+        <v>0.766</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>53.78</v>
+        <v>53.783</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>8.52</v>
+        <v>8.523</v>
       </c>
       <c r="AH4" s="4" t="n">
         <v>19.09</v>
@@ -1064,110 +1064,6 @@
       </c>
       <c r="AH5" s="4" t="n">
         <v>18.22</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>45024.53471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>21.14</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>15.61</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>45.96</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>37.53</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>16.57</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>64.97</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>11.38</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>16.83</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>18.44</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>19.51</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>5.31</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>16.54</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>23.55</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>13.94</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>244.48</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>46.28</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>15.27</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>31.11</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>16.3</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>2.44</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>31.51</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>13.49</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>11.94</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>14.05</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>19.38</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>59.09</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>8.59</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>19.09</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_343.xlsx
+++ b/DATA_goal/Junction_Flooding_343.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH5"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,7 +469,7 @@
     <col width="7" customWidth="1" min="25" max="25"/>
     <col width="8" customWidth="1" min="26" max="26"/>
     <col width="8" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
+    <col width="8" customWidth="1" min="28" max="28"/>
     <col width="8" customWidth="1" min="29" max="29"/>
     <col width="8" customWidth="1" min="30" max="30"/>
     <col width="7" customWidth="1" min="31" max="31"/>
@@ -967,103 +967,207 @@
         <v>45024.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>20.18</v>
+        <v>20.178</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>14.82</v>
+        <v>14.822</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>1.22</v>
+        <v>1.225</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>43.86</v>
+        <v>43.863</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>35.69</v>
+        <v>35.692</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>15.81</v>
+        <v>15.813</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>61.91</v>
+        <v>61.909</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>24.43</v>
+        <v>24.432</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>10.82</v>
+        <v>10.818</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>15.97</v>
+        <v>15.969</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>17.59</v>
+        <v>17.594</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>18.6</v>
+        <v>18.602</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>5.07</v>
+        <v>5.073</v>
       </c>
       <c r="O5" s="4" t="n">
         <v>15.79</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>22.44</v>
+        <v>22.445</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>13.36</v>
+        <v>13.362</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.82</v>
+        <v>0.822</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.83</v>
+        <v>0.834</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>233.04</v>
+        <v>233.036</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>44.18</v>
+        <v>44.182</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>14.58</v>
+        <v>14.575</v>
       </c>
       <c r="W5" s="4" t="n">
         <v>29.63</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>15.51</v>
+        <v>15.515</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>2.41</v>
+        <v>2.412</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>30.09</v>
+        <v>30.088</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>12.87</v>
+        <v>12.874</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>11.43</v>
+        <v>11.429</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>13.45</v>
+        <v>13.453</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>18.49</v>
+        <v>18.487</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.55</v>
+        <v>0.553</v>
       </c>
       <c r="AF5" s="4" t="n">
         <v>56.42</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>8.17</v>
+        <v>8.167999999999999</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>18.22</v>
+        <v>18.223</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>45024.53471064815</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>21.14</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>15.61</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>45.96</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>37.53</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>16.57</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>64.97</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>11.38</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>16.83</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>18.44</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>19.51</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>5.31</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>16.54</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>23.55</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>13.94</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>244.48</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>46.28</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>15.27</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>31.11</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>16.3</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>31.51</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>13.49</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>11.94</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>14.05</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>19.38</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>59.09</v>
+      </c>
+      <c r="AG6" s="4" t="n">
+        <v>8.59</v>
+      </c>
+      <c r="AH6" s="4" t="n">
+        <v>19.09</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_343.xlsx
+++ b/DATA_goal/Junction_Flooding_343.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,7 +469,7 @@
     <col width="7" customWidth="1" min="25" max="25"/>
     <col width="8" customWidth="1" min="26" max="26"/>
     <col width="8" customWidth="1" min="27" max="27"/>
-    <col width="8" customWidth="1" min="28" max="28"/>
+    <col width="7" customWidth="1" min="28" max="28"/>
     <col width="8" customWidth="1" min="29" max="29"/>
     <col width="8" customWidth="1" min="30" max="30"/>
     <col width="7" customWidth="1" min="31" max="31"/>
@@ -967,207 +967,103 @@
         <v>45024.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>20.178</v>
+        <v>20.18</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>14.822</v>
+        <v>14.82</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>1.225</v>
+        <v>1.22</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>43.863</v>
+        <v>43.86</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>35.692</v>
+        <v>35.69</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>15.813</v>
+        <v>15.81</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>61.909</v>
+        <v>61.91</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>24.432</v>
+        <v>24.43</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>10.818</v>
+        <v>10.82</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>15.969</v>
+        <v>15.97</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>17.594</v>
+        <v>17.59</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>18.602</v>
+        <v>18.6</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>5.073</v>
+        <v>5.07</v>
       </c>
       <c r="O5" s="4" t="n">
         <v>15.79</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>22.445</v>
+        <v>22.44</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>13.362</v>
+        <v>13.36</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.822</v>
+        <v>0.82</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.834</v>
+        <v>0.83</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>233.036</v>
+        <v>233.04</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>44.182</v>
+        <v>44.18</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>14.575</v>
+        <v>14.58</v>
       </c>
       <c r="W5" s="4" t="n">
         <v>29.63</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>15.515</v>
+        <v>15.51</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>2.412</v>
+        <v>2.41</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>30.088</v>
+        <v>30.09</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>12.874</v>
+        <v>12.87</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>11.429</v>
+        <v>11.43</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>13.453</v>
+        <v>13.45</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>18.487</v>
+        <v>18.49</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.553</v>
+        <v>0.55</v>
       </c>
       <c r="AF5" s="4" t="n">
         <v>56.42</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>8.167999999999999</v>
+        <v>8.17</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>18.223</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>45024.53471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>21.14</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>15.61</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>45.96</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>37.53</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>16.57</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>64.97</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>11.38</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>16.83</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>18.44</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>19.51</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>5.31</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>16.54</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>23.55</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>13.94</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>244.48</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>46.28</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>15.27</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>31.11</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>16.3</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>2.44</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>31.51</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>13.49</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>11.94</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>14.05</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>19.38</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>59.09</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>8.59</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>19.09</v>
+        <v>18.22</v>
       </c>
     </row>
   </sheetData>
